--- a/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
+++ b/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.64</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.96</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4560</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.63</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>29.42</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.39</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>001428</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>工银瑞信灵活配置混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001428</t>
+          <t>487016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合B</t>
+          <t>工银瑞信灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>75.03</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.73</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>487016</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合A</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>75.03</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.37</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>79.62</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.38</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>005136</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>华安幸福生活混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -800,15 +910,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>86.68</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.52</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005136</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安幸福生活混合</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.67</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
+++ b/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0264</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
+++ b/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
+++ b/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
+++ b/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
+++ b/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.67</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.43</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.45</v>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7635</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3593</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
+++ b/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>4.18</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.67</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.43</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.45</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -566,6 +583,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>015182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5622</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014509</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014508</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013368</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013367</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1039,7 +1682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1133,7 +1776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,7 +1908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1511,7 +2154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
+++ b/数据整理/stocks/A股/深证主板/000913-钱江摩托.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>3.58</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>4.18</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.67</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.43</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.45</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -583,6 +600,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1208,7 +1661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1682,7 +2135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1776,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1908,7 +2361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2154,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
